--- a/data_preparation/column-1-analyze.xlsx
+++ b/data_preparation/column-1-analyze.xlsx
@@ -19,12 +19,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -55,7 +55,7 @@
     <t>Cc</t>
   </si>
   <si>
-    <t>và, Và, hoặc, với, Hoặc, hay là, Hay là, Với, hay</t>
+    <t>và, hoặc, Và, với, Hoặc, hay là, Hay là, hay, Với</t>
   </si>
   <si>
     <t>E</t>
@@ -73,13 +73,13 @@
     <t>I</t>
   </si>
   <si>
-    <t>ơi, Ôi, ạ, Thôi, nhỉ, À, à, ư, Vâng, A</t>
+    <t>ơi, Ôi, ạ, Thôi, à, À, ư, nhỉ, Vâng, Ờ</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>những, các, Những, mấy, Các, mọi, vài, một số, mỗi, Mấy</t>
+    <t>những, các, Những, mấy, Các, mọi, vài, một số, mỗi, toàn bộ</t>
   </si>
   <si>
     <t>M</t>
@@ -103,7 +103,7 @@
     <t>Nb</t>
   </si>
   <si>
-    <t>karaoke, nilông, fax, oxy, dioxin, marketing, heroin, tennis, ăcqui, bêtông</t>
+    <t>karaoke, nilông, fax, oxy, marketing, dioxin, heroin, ăcqui, tennis, bù loong</t>
   </si>
   <si>
     <t>Nc</t>
@@ -115,7 +115,7 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Hùng, Mỹ, Chương, Hải, Hà Nội, Nam, Tùng, Kim, Tuấn, Việt</t>
+    <t>Hùng, Mỹ, Chương, Hải, Hà Nội, Nam, Tùng, Tuấn, Kim, Việt</t>
   </si>
   <si>
     <t>Nu</t>
@@ -151,7 +151,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, ngay, chính, đến, thôi, rồi, Thế, thật, mà, Ngay</t>
+    <t>cả, ngay, chính, đến, thôi, rồi, Thế, thật, mà, lắm</t>
   </si>
   <si>
     <t>V</t>
@@ -163,31 +163,31 @@
     <t>Vb</t>
   </si>
   <si>
-    <t>knock-out, photo, photocopy, Download, OK, chat, copy, email, fax, made</t>
+    <t>knock-out, photo, photocopy, email, copy, Download, pay tà lạt, chat, phone, trade</t>
   </si>
   <si>
     <t>Vy</t>
   </si>
   <si>
-    <t>PCCC, QLTT</t>
+    <t>QLTT, PCCC</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>như vậy, làm sao, nhất là, vì sao, một mình, như thế, ngày càng, ra sao, thế nào, có lẽ</t>
+    <t>như vậy, làm sao, vì sao, nhất là, một mình, như thế, thế nào, ra sao, ngày càng, như thế nào</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>&amp;, B, 1A, CTP, 0C, A, OV .10</t>
+    <t>&amp;, B, 1A, CTP, A, OV .10, 0C</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, trưởng, liên, nguyên, tái, tổng, đa, Phó, bất, cựu</t>
+    <t>phó, trưởng, nguyên, liên, tái, tổng, đa, tiền, bất, Phó</t>
   </si>
 </sst>
 </file>
@@ -559,308 +559,308 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>11221</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>4939</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4939</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="n">
+        <v>24811</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24811</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="n">
+        <v>12275</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="n">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3391</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="n">
+        <v>6667</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="n">
+        <v>46079</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>46079</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="n">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="n">
+        <v>4363</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4363</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1020</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1458</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="n">
+        <v>7632</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7632</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="n">
+        <v>13733</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13733</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="n">
+        <v>1119</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="n">
+        <v>36743</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" t="n">
-        <v>36743</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="n">
+        <v>574</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="n">
-        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="n">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="n">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" t="n">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
